--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99135495668842488</v>
+        <v>0.99135495435861676</v>
       </c>
       <c r="C2">
-        <v>1.9140336954004806</v>
+        <v>1.9140336928830242</v>
       </c>
       <c r="D2">
-        <v>2.6737638489457738</v>
+        <v>2.6737638419948735</v>
       </c>
       <c r="E2">
-        <v>4.4979629367217999</v>
+        <v>4.4979629346581262</v>
       </c>
       <c r="F2">
-        <v>2.0251287262232109</v>
+        <v>2.0251287244601546</v>
       </c>
       <c r="G2">
-        <v>1.151573627223804</v>
+        <v>1.1515736279523845</v>
       </c>
       <c r="H2">
-        <v>1.5231404063949607</v>
+        <v>1.5231404030685265</v>
       </c>
       <c r="I2">
-        <v>2.050891266716441</v>
+        <v>2.0508912687108771</v>
       </c>
       <c r="J2">
-        <v>2.7934979776102611</v>
+        <v>2.7934979726365916</v>
       </c>
       <c r="K2">
-        <v>0.89633096278626223</v>
+        <v>0.89633096497560671</v>
       </c>
       <c r="L2">
-        <v>0.50869284533068326</v>
+        <v>0.5086928434403688</v>
       </c>
       <c r="N2">
-        <v>2.3595789201587114</v>
+        <v>2.359578920047035</v>
       </c>
       <c r="O2">
-        <v>1.9658909635287782</v>
+        <v>1.9658909572107732</v>
       </c>
       <c r="P2">
-        <v>3.2358324101649689</v>
+        <v>3.2358324080578078</v>
       </c>
       <c r="Q2">
-        <v>0.40427037734872967</v>
+        <v>0.40427037042652242</v>
       </c>
       <c r="S2">
-        <v>4.1416990484543748</v>
+        <v>4.1416990155980349</v>
       </c>
       <c r="V2">
-        <v>1.4353808171540015</v>
+        <v>1.4353808104623913</v>
       </c>
       <c r="W2">
-        <v>-1.3888982512178749</v>
+        <v>-1.3888982551842277</v>
       </c>
       <c r="X2">
-        <v>0.84707192349426819</v>
+        <v>0.84707191857809583</v>
       </c>
       <c r="AA2">
-        <v>3.4242311716776683</v>
+        <v>3.424231164688111</v>
       </c>
       <c r="AB2">
-        <v>3.2874599287006068</v>
+        <v>3.2874599150411439</v>
       </c>
       <c r="AC2">
-        <v>0.68105031127028015</v>
+        <v>0.68105031160427765</v>
       </c>
       <c r="AD2">
-        <v>5.1056763130962812</v>
+        <v>5.1056762977395698</v>
       </c>
       <c r="AE2">
-        <v>2.2128844138094212</v>
+        <v>2.2128844132659786</v>
       </c>
       <c r="AF2">
-        <v>3.0114291210787041</v>
+        <v>3.011429119806512</v>
       </c>
       <c r="AG2">
-        <v>2.8166189805688067</v>
+        <v>2.8166189737784784</v>
       </c>
       <c r="AH2">
-        <v>3.0547204042085445</v>
+        <v>3.0547203950001975</v>
       </c>
       <c r="AI2">
-        <v>3.3281976487735889</v>
+        <v>3.3281976335416954</v>
       </c>
       <c r="AJ2">
-        <v>1.906319509243936</v>
+        <v>1.9063195065724865</v>
       </c>
       <c r="AK2">
-        <v>2.3705204526586177</v>
+        <v>2.370520446409583</v>
       </c>
       <c r="AL2">
-        <v>0.16130286476936326</v>
+        <v>0.16130285835798111</v>
       </c>
       <c r="AM2">
-        <v>2.8658885418538063</v>
+        <v>2.8658885301787187</v>
       </c>
       <c r="AN2">
-        <v>2.9951584442418655</v>
+        <v>2.9951584354922254</v>
       </c>
       <c r="AO2">
-        <v>5.1175328551197081</v>
+        <v>5.1175328431674529</v>
       </c>
       <c r="AQ2">
-        <v>0.41477908539513453</v>
+        <v>0.41477907537688408</v>
       </c>
       <c r="AR2">
-        <v>4.7290681479269834</v>
+        <v>4.7290681516159312</v>
       </c>
       <c r="AS2">
-        <v>3.6149736480976484</v>
+        <v>3.6149736367225649</v>
       </c>
       <c r="AU2">
-        <v>2.6451213911523483</v>
+        <v>2.6451213855783582</v>
       </c>
       <c r="AV2">
-        <v>1.1469004114905801</v>
+        <v>1.1469003976236514</v>
       </c>
       <c r="AW2">
-        <v>1.6141108231453043</v>
+        <v>1.6141108133215065</v>
       </c>
       <c r="AX2">
-        <v>4.2376693802406997</v>
+        <v>4.2376693738539304</v>
       </c>
       <c r="AY2">
-        <v>5.2893927342635871</v>
+        <v>5.289392722731928</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3382454565745612</v>
+        <v>1.3382454504403511</v>
       </c>
       <c r="C3">
-        <v>1.6062041308955939</v>
+        <v>1.606204123717923</v>
       </c>
       <c r="E3">
-        <v>3.5997730728884569</v>
+        <v>3.5997730692797241</v>
       </c>
       <c r="F3">
-        <v>1.3191570189412642</v>
+        <v>1.3191570140004276</v>
       </c>
       <c r="G3">
-        <v>2.7581107076964804</v>
+        <v>2.758110703279216</v>
       </c>
       <c r="H3">
-        <v>0.3280117189408297</v>
+        <v>0.32801171695868858</v>
       </c>
       <c r="J3">
-        <v>3.6974558579519567</v>
+        <v>3.6974558456465862</v>
       </c>
       <c r="K3">
-        <v>5.4012552339127895</v>
+        <v>5.4012552299064662</v>
       </c>
       <c r="L3">
-        <v>3.2958707463929495</v>
+        <v>3.2958707386939623</v>
       </c>
       <c r="M3">
-        <v>0.67096838231297151</v>
+        <v>0.67094158386430502</v>
       </c>
       <c r="N3">
-        <v>2.0798837614470282</v>
+        <v>2.0798837560291341</v>
       </c>
       <c r="P3">
-        <v>3.4963767160671599</v>
+        <v>3.4963767033754451</v>
       </c>
       <c r="Q3">
-        <v>1.4660168995226228</v>
+        <v>1.4660168945964427</v>
       </c>
       <c r="R3">
-        <v>0.265855071491235</v>
+        <v>0.26585505947081128</v>
       </c>
       <c r="W3">
-        <v>0.27341184451626049</v>
+        <v>0.273411834469516</v>
       </c>
       <c r="AA3">
-        <v>3.8001118731985861</v>
+        <v>3.8001118640080787</v>
       </c>
       <c r="AB3">
-        <v>3.4010787110285086</v>
+        <v>3.4010787029177521</v>
       </c>
       <c r="AC3">
-        <v>4.8307914273916115</v>
+        <v>4.8307914250184876</v>
       </c>
       <c r="AD3">
-        <v>5.3212092555892205</v>
+        <v>5.3212092494732577</v>
       </c>
       <c r="AE3">
-        <v>3.5996859337832698</v>
+        <v>3.5996859315239389</v>
       </c>
       <c r="AF3">
-        <v>3.028820765505702</v>
+        <v>3.0288207592890601</v>
       </c>
       <c r="AG3">
-        <v>1.6145954419227209</v>
+        <v>1.6145954335741775</v>
       </c>
       <c r="AH3">
-        <v>1.4222701920843597</v>
+        <v>1.4222701831206628</v>
       </c>
       <c r="AI3">
-        <v>8.6350358774326903</v>
+        <v>8.6350358763276187</v>
       </c>
       <c r="AJ3">
-        <v>4.182233690015055</v>
+        <v>4.1822336815812076</v>
       </c>
       <c r="AK3">
-        <v>3.4932329125277608</v>
+        <v>3.4932329064173961</v>
       </c>
       <c r="AL3">
-        <v>2.4257792466164272</v>
+        <v>2.4257792354720382</v>
       </c>
       <c r="AM3">
-        <v>2.4270978783012449</v>
+        <v>2.4270978639903511</v>
       </c>
       <c r="AN3">
-        <v>-1.4523953576897466</v>
+        <v>-1.4523953645351266</v>
       </c>
       <c r="AO3">
-        <v>4.8868158060869682</v>
+        <v>4.8868158009555369</v>
       </c>
       <c r="AP3">
-        <v>1.391353654039196</v>
+        <v>1.3913536472968437</v>
       </c>
       <c r="AQ3">
-        <v>2.074515101488561</v>
+        <v>2.0745150946965634</v>
       </c>
       <c r="AS3">
-        <v>3.0840255320649703</v>
+        <v>3.0840255301350648</v>
       </c>
       <c r="AT3">
-        <v>3.8587886577197241</v>
+        <v>3.8587886483537752</v>
       </c>
       <c r="AU3">
-        <v>1.8771207210687055</v>
+        <v>1.8771207190577925</v>
       </c>
       <c r="AV3">
-        <v>1.375499090017148</v>
+        <v>1.3754990835590251</v>
       </c>
       <c r="AW3">
-        <v>1.6466661290939184</v>
+        <v>1.6466661213218412</v>
       </c>
       <c r="AX3">
-        <v>2.0897341350620056</v>
+        <v>2.0897341264473561</v>
       </c>
       <c r="AY3">
-        <v>5.9256397515196113</v>
+        <v>5.9256397411759432</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.99135495435861676</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9140336928830242</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.6737638419948735</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4979629346581262</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.0251287244601546</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1515736279523845</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.5231404030685265</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.0508912687108771</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.7934979726365916</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.89633096497560671</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5086928434403688</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.359578920047035</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.9658909572107732</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.2358324080578078</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.40427037042652242</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.1416990155980349</v>
+        <v>2.4731570945986654</v>
       </c>
       <c r="V2">
         <v>1.4353808104623913</v>
@@ -570,52 +465,55 @@
         <v>0.84707191857809583</v>
       </c>
       <c r="AA2">
-        <v>3.424231164688111</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.2874599150411439</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.68105031160427765</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.1056762977395698</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.2128844132659786</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.011429119806512</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.8166189737784784</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.0547203950001975</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.3281976335416954</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.9063195065724865</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.370520446409583</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.16130285835798111</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.8658885301787187</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.9951584354922254</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.1175328431674529</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.41477907537688408</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.7290681516159312</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.3382454504403511</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.606204123717923</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.5997730692797241</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3191570140004276</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.758110703279216</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.32801171695868858</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.6974558456465862</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.4012552299064662</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.2958707386939623</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.67094158386430502</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.0798837560291341</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.4963767033754451</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4660168945964427</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.26585505947081128</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0.273411834469516</v>
       </c>
       <c r="AA3">
-        <v>3.8001118640080787</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.4010787029177521</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.8307914250184876</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.3212092494732577</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.5996859315239389</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.0288207592890601</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.6145954335741775</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.4222701831206628</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.6350358763276187</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.1822336815812076</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.4932329064173961</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.4257792354720382</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.4270978639903511</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.4523953645351266</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.8868158009555369</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3913536472968437</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.0745150946965634</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>3.0840255301350648</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.99135495668842488</v>
-      </c>
-      <c r="C2">
-        <v>1.3696610773707321</v>
-      </c>
-      <c r="D2">
-        <v>2.6737638489457738</v>
-      </c>
-      <c r="E2">
-        <v>4.4979629367217999</v>
-      </c>
       <c r="F2">
         <v>2.0251287262232109</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.3382454565745612</v>
-      </c>
       <c r="C3">
-        <v>1.6062041308955939</v>
+        <v>0.26585505947081128</v>
+      </c>
+      <c r="D3">
+        <v>-1.2502700928198058</v>
       </c>
       <c r="E3">
-        <v>3.5997730728884569</v>
+        <v>2.2579492840420214</v>
       </c>
       <c r="F3">
         <v>1.3191570189412642</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99135495668842488</v>
-      </c>
-      <c r="C2">
-        <v>1.3696610773707321</v>
+        <v>2.1634793428910424</v>
       </c>
       <c r="D2">
-        <v>2.6737638489457738</v>
-      </c>
-      <c r="E2">
-        <v>4.4979629367217999</v>
+        <v>2.8658885301787187</v>
       </c>
       <c r="F2">
         <v>2.0251287262232109</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3382454565745612</v>
-      </c>
-      <c r="C3">
-        <v>1.6062041308955939</v>
+        <v>2.0798837560291341</v>
+      </c>
+      <c r="D3">
+        <v>2.4270978639903511</v>
       </c>
       <c r="E3">
-        <v>4.9042803961796864</v>
+        <v>-1.2502700928198058</v>
       </c>
       <c r="F3">
         <v>1.3191570189412642</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.99135495435861676</v>
+      </c>
+      <c r="C2">
+        <v>1.3696610753952609</v>
+      </c>
+      <c r="D2">
+        <v>2.6737638419948735</v>
+      </c>
+      <c r="E2">
+        <v>4.4979629346581262</v>
+      </c>
+      <c r="F2">
+        <v>2.0251287244601546</v>
+      </c>
+      <c r="G2">
+        <v>2.0121168461370647</v>
+      </c>
+      <c r="H2">
+        <v>1.5231404030685265</v>
+      </c>
+      <c r="I2">
+        <v>2.8476758965475533</v>
+      </c>
+      <c r="J2">
+        <v>2.7934979726365916</v>
+      </c>
+      <c r="K2">
+        <v>0.89633096497560671</v>
+      </c>
+      <c r="L2">
+        <v>0.55310952562266869</v>
+      </c>
+      <c r="N2">
         <v>2.1634793428910424</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.5483913550469435</v>
+      </c>
+      <c r="Q2">
+        <v>0.40427037042652242</v>
+      </c>
+      <c r="V2">
+        <v>2.0187216204818776</v>
+      </c>
+      <c r="W2">
+        <v>-1.3888982551842277</v>
+      </c>
+      <c r="X2">
+        <v>0.84707191857809583</v>
+      </c>
+      <c r="AA2">
+        <v>3.424231164688111</v>
+      </c>
+      <c r="AB2">
+        <v>3.2874599150411439</v>
+      </c>
+      <c r="AC2">
+        <v>0.68105031160427765</v>
+      </c>
+      <c r="AD2">
+        <v>5.1056762977395698</v>
+      </c>
+      <c r="AE2">
+        <v>2.2128844132659786</v>
+      </c>
+      <c r="AF2">
+        <v>3.011429119806512</v>
+      </c>
+      <c r="AG2">
+        <v>2.8166189737784784</v>
+      </c>
+      <c r="AH2">
+        <v>3.0547203950001975</v>
+      </c>
+      <c r="AI2">
+        <v>3.3281976335416954</v>
+      </c>
+      <c r="AJ2">
+        <v>1.9063195065724865</v>
+      </c>
+      <c r="AK2">
+        <v>2.370520446409583</v>
+      </c>
+      <c r="AL2">
+        <v>0.16130285835798111</v>
+      </c>
+      <c r="AM2">
         <v>2.8658885301787187</v>
       </c>
-      <c r="F2">
-        <v>2.0251287262232109</v>
-      </c>
-      <c r="G2">
-        <v>2.0121168456539631</v>
-      </c>
-      <c r="H2">
-        <v>1.5231404063949607</v>
-      </c>
-      <c r="I2">
-        <v>2.8476758933937765</v>
-      </c>
-      <c r="J2">
-        <v>2.7934979776102611</v>
-      </c>
-      <c r="K2">
-        <v>0.89633096278626223</v>
-      </c>
-      <c r="L2">
-        <v>0.5531095291949284</v>
-      </c>
-      <c r="N2">
-        <v>2.163479343992567</v>
-      </c>
-      <c r="P2">
-        <v>3.5483913555558155</v>
-      </c>
-      <c r="Q2">
-        <v>0.40427037734872967</v>
-      </c>
-      <c r="V2">
-        <v>2.0187216302034687</v>
-      </c>
-      <c r="W2">
-        <v>-1.3888982512178749</v>
-      </c>
-      <c r="X2">
-        <v>0.84707192349426819</v>
-      </c>
-      <c r="AA2">
-        <v>3.4242311716776683</v>
-      </c>
-      <c r="AB2">
-        <v>3.2874599287006068</v>
-      </c>
-      <c r="AC2">
-        <v>0.68105031127028015</v>
-      </c>
-      <c r="AD2">
-        <v>5.1056763130962812</v>
-      </c>
-      <c r="AE2">
-        <v>2.2128844138094212</v>
-      </c>
-      <c r="AF2">
-        <v>3.0114291210787041</v>
-      </c>
-      <c r="AG2">
-        <v>2.8166189805688067</v>
-      </c>
-      <c r="AH2">
-        <v>3.0547204042085445</v>
-      </c>
-      <c r="AI2">
-        <v>3.3281976487735889</v>
-      </c>
-      <c r="AJ2">
-        <v>1.906319509243936</v>
-      </c>
-      <c r="AK2">
-        <v>2.3705204526586177</v>
-      </c>
-      <c r="AL2">
-        <v>0.16130286476936326</v>
-      </c>
-      <c r="AM2">
-        <v>2.8658885418538063</v>
-      </c>
       <c r="AO2">
-        <v>5.1175328551197081</v>
+        <v>5.1175328431674529</v>
       </c>
       <c r="AR2">
-        <v>4.7290681479269834</v>
+        <v>4.7290681516159312</v>
       </c>
       <c r="AS2">
-        <v>3.6149736480976484</v>
+        <v>3.6149736367225649</v>
       </c>
       <c r="AU2">
-        <v>1.5051507587762551</v>
+        <v>1.5051507509149002</v>
       </c>
       <c r="AV2">
-        <v>1.1469004114905801</v>
+        <v>1.1469003976236514</v>
       </c>
       <c r="AW2">
-        <v>1.6141108231453043</v>
+        <v>1.6141108133215065</v>
       </c>
       <c r="AX2">
-        <v>4.2376693802406997</v>
+        <v>4.2376693738539304</v>
       </c>
       <c r="AY2">
-        <v>5.2893927342635871</v>
+        <v>5.289392722731928</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.3382454504403511</v>
+      </c>
+      <c r="C3">
+        <v>1.606204123717923</v>
+      </c>
+      <c r="E3">
+        <v>4.9042803971944338</v>
+      </c>
+      <c r="F3">
+        <v>1.3191570140004276</v>
+      </c>
+      <c r="G3">
+        <v>2.758110703279216</v>
+      </c>
+      <c r="H3">
+        <v>0.32801171695868858</v>
+      </c>
+      <c r="J3">
+        <v>3.6974558456465862</v>
+      </c>
+      <c r="K3">
+        <v>4.6790996813248231</v>
+      </c>
+      <c r="L3">
+        <v>3.2958707386939623</v>
+      </c>
+      <c r="M3">
+        <v>-0.12671384281757883</v>
+      </c>
+      <c r="N3">
         <v>2.0798837560291341</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.4963767033754451</v>
+      </c>
+      <c r="Q3">
+        <v>1.4660168945964427</v>
+      </c>
+      <c r="R3">
+        <v>0.26585505947081128</v>
+      </c>
+      <c r="W3">
+        <v>0.273411834469516</v>
+      </c>
+      <c r="AA3">
+        <v>3.8001118640080787</v>
+      </c>
+      <c r="AB3">
+        <v>3.4010787029177521</v>
+      </c>
+      <c r="AC3">
+        <v>4.8307914250184876</v>
+      </c>
+      <c r="AD3">
+        <v>5.3212092494732577</v>
+      </c>
+      <c r="AE3">
+        <v>3.5996859315239389</v>
+      </c>
+      <c r="AF3">
+        <v>3.0288207592890601</v>
+      </c>
+      <c r="AG3">
+        <v>1.6145954335741775</v>
+      </c>
+      <c r="AH3">
+        <v>1.4222701831206628</v>
+      </c>
+      <c r="AI3">
+        <v>3.3498128342361775</v>
+      </c>
+      <c r="AJ3">
+        <v>4.1822336815812076</v>
+      </c>
+      <c r="AK3">
+        <v>3.4932329064173961</v>
+      </c>
+      <c r="AL3">
+        <v>2.4257792354720382</v>
+      </c>
+      <c r="AM3">
         <v>2.4270978639903511</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-1.2502700928198058</v>
       </c>
-      <c r="F3">
-        <v>1.3191570189412642</v>
-      </c>
-      <c r="G3">
-        <v>2.7581107076964804</v>
-      </c>
-      <c r="H3">
-        <v>0.3280117189408297</v>
-      </c>
-      <c r="J3">
-        <v>3.6974558579519567</v>
-      </c>
-      <c r="K3">
-        <v>4.6790996859019076</v>
-      </c>
-      <c r="L3">
-        <v>3.2958707463929495</v>
-      </c>
-      <c r="M3">
-        <v>-0.12673906001510757</v>
-      </c>
-      <c r="N3">
-        <v>2.0798837614470282</v>
-      </c>
-      <c r="P3">
-        <v>3.4963767160671599</v>
-      </c>
-      <c r="Q3">
-        <v>1.4660168995226228</v>
-      </c>
-      <c r="R3">
-        <v>0.265855071491235</v>
-      </c>
-      <c r="W3">
-        <v>0.27341184451626049</v>
-      </c>
-      <c r="AA3">
-        <v>3.8001118731985861</v>
-      </c>
-      <c r="AB3">
-        <v>3.4010787110285086</v>
-      </c>
-      <c r="AC3">
-        <v>4.8307914273916115</v>
-      </c>
-      <c r="AD3">
-        <v>5.3212092555892205</v>
-      </c>
-      <c r="AE3">
-        <v>3.5996859337832698</v>
-      </c>
-      <c r="AF3">
-        <v>3.028820765505702</v>
-      </c>
-      <c r="AG3">
-        <v>1.6145954419227209</v>
-      </c>
-      <c r="AH3">
-        <v>1.4222701920843597</v>
-      </c>
-      <c r="AI3">
-        <v>3.3498128475573354</v>
-      </c>
-      <c r="AJ3">
-        <v>4.182233690015055</v>
-      </c>
-      <c r="AK3">
-        <v>3.4932329125277608</v>
-      </c>
-      <c r="AL3">
-        <v>2.4257792466164272</v>
-      </c>
-      <c r="AM3">
-        <v>2.4270978783012449</v>
-      </c>
-      <c r="AN3">
-        <v>-1.25027008545521</v>
-      </c>
       <c r="AO3">
-        <v>4.8868158060869682</v>
+        <v>4.8868158009555369</v>
       </c>
       <c r="AP3">
-        <v>1.391353654039196</v>
+        <v>1.3913536472968437</v>
       </c>
       <c r="AQ3">
-        <v>2.2579492869177096</v>
+        <v>2.2579492840420214</v>
       </c>
       <c r="AS3">
-        <v>3.0840255320649703</v>
+        <v>3.0840255301350648</v>
       </c>
       <c r="AT3">
-        <v>3.8587886577197241</v>
+        <v>3.8587886483537752</v>
       </c>
       <c r="AU3">
-        <v>2.0764233716617575</v>
+        <v>2.076423369264079</v>
       </c>
       <c r="AV3">
-        <v>1.375499090017148</v>
+        <v>1.3754990835590251</v>
       </c>
       <c r="AW3">
-        <v>1.6466661290939184</v>
+        <v>1.6466661213218412</v>
       </c>
       <c r="AX3">
-        <v>2.0897341350620056</v>
+        <v>2.0897341264473561</v>
       </c>
       <c r="AY3">
-        <v>5.9256397515196113</v>
+        <v>5.9256397411759432</v>
       </c>
     </row>
   </sheetData>
